--- a/story/Activity Story 活动剧情/act12d0 Gavial the Great Chief Returns 密林悍将归来 帰還！密林の長/training/training_act12d0_01_d.xlsx
+++ b/story/Activity Story 活动剧情/act12d0 Gavial the Great Chief Returns 密林悍将归来 帰還！密林の長/training/training_act12d0_01_d.xlsx
@@ -52,7 +52,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_ccheal")] That’s the Doctor for you. Even thought this much through, huh?
+    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_ccheal")] That's the Doctor for you. Even thought this much through, huh?
 </t>
   </si>
   <si>
@@ -60,7 +60,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_ccheal")] Hell, let’s not waste the power of our temps, then. Forward!
+    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_ccheal")] Hell, let's not waste the power of our temps, then. Forward!
 </t>
   </si>
   <si>
